--- a/Prj_2_results/8_core/output_criticality.xlsx
+++ b/Prj_2_results/8_core/output_criticality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -74,6 +74,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,7 +163,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -189,10 +194,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFAA61A"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -205,6 +210,1132 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.000999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.000999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.000999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.000999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.000999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.000999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.000999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accelerated time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>0.000124927633480309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.38472631839285E-005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000120189285554441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000120540241218809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000120354676038188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000272559392388119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00012079305538901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000120963699700068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000120073911506694</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00012095697480111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000120567981427011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000121002157715984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.000120240773062088</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.000120556843313112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.000120659608175313</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000121136445542051</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00011965780838367</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00012094226408464</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000120684406240221</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00012047215161686</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000120782127428203</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.000120758590281851</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.000121050282774152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.000120661289400053</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000120695754507212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000120561046374961</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000120588156123885</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000120374430428877</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.000120999635878875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.000120675369657246</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000121058478744757</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000120486652180238</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.000119809118610224</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000120980511947463</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000120462064268423</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000121028426852539</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.000120459332278221</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.000120565669742994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0001211156403859</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000120640694396994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000120367915683012</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000120641745162456</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000120459962737499</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.000121166497434269</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000120513761929162</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000120982613478388</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000120434534213314</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.000120598453625414</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.000120831093098741</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000120499261365784</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.000120582061684204</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.000121054065529816</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.00012047131100449</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.000121159982688404</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.000120711305836052</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.000120110478144777</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.000121034731445312</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.000120658557409851</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.000121207477287294</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.000120418562578289</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.000110149641869488</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.00100214875316901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.00100212393991718</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.00100219660729755</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.00100216824929545</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.00100221610342399</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.00100222496529964</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.00100214520841875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.00100221610342399</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.00100222319292451</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.00100217533879598</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.00100217179404571</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0010021593874198</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.00100219837967268</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.001002107988541</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.00100218420067163</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.00100216824929545</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.00100217356642084</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0010022338271753</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0010021824282965</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0010021824282965</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.00100221255867373</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.00100219129017215</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.00100212925704257</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.00100217888354624</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.00100221964817425</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.00100211685041665</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0010022054691732</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.00100219306254729</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.00100217179404571</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.00100218774542189</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0010021593874198</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.00100210976091613</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.00100218774542189</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.00100219837967268</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.00100201582503419</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.00100210089904048</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.00100218951779702</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.00100213634654309</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.00100206367916273</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.00100216115979493</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.00100211330566639</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.00100218065592137</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.00100215229791927</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.00100212748466744</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.00100214875316901</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.00100217888354624</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.00100210976091613</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.00100217711117111</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.00100219306254729</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.00100212039516692</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.00100212748466744</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.00100216824929545</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.00100216647692032</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.00100210089904048</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.00100207608578864</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.00100217356642084</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.00100220015204781</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.00100216470454519</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.00100214343604362</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.000238928574278297</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.000121680531898368</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.000121802210538888</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.00012164102311699</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.000121779303851813</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.000121215042798622</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.00012186189401714</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.000121645226178839</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.000122060908995678</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.000121800109007964</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.000122346717201391</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.00012160907984694</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.000121799058242502</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.000121527750600167</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.000121194868101748</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.000121708061953477</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.000121859372180031</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.000121827639063073</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.000121809355744031</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.000121620428113931</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.000121787499822418</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.000103898007675697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="53834848"/>
+        <c:axId val="40669815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53834848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40669815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40669815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53834848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236880</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>492840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2682720" y="847800"/>
+        <a:ext cx="5759640" cy="3238200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -212,13 +1343,17 @@
   </sheetPr>
   <dimension ref="A1:Z150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,119 +1436,119 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>4.932258</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>4932257774377</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1577867706</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>199249957</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>98058666</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>14787320</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>80810609</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>12322043</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>46331556</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>6243475</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>47187928</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <v>6196892</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="1" t="n">
         <v>41387802</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="1" t="n">
         <v>5449957</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="1" t="n">
         <v>52585003</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="1" t="n">
         <v>6958787</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2" s="1" t="n">
         <v>47259884</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2" s="1" t="n">
         <v>6084936</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>0.000566</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>-4931692057730</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>0.001566</v>
       </c>
@@ -426,6 +1561,10 @@
       <c r="D4" s="0" t="n">
         <v>41967</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">C4/D4</f>
+        <v>7.80842090213739</v>
+      </c>
       <c r="F4" s="0" t="n">
         <v>99304</v>
       </c>
@@ -469,7 +1608,7 @@
         <v>50234</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>0.002566</v>
       </c>
@@ -482,6 +1621,10 @@
       <c r="D5" s="0" t="n">
         <v>22269</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">C5/D5</f>
+        <v>7.31564057658629</v>
+      </c>
       <c r="F5" s="0" t="n">
         <v>2717668</v>
       </c>
@@ -525,7 +1668,7 @@
         <v>40708</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>0.003566</v>
       </c>
@@ -538,6 +1681,10 @@
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E6" s="0" t="e">
+        <f aca="false">C6/D6</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F6" s="0" t="n">
         <v>4575304</v>
       </c>
@@ -581,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>0.004566</v>
       </c>
@@ -594,6 +1741,10 @@
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E7" s="0" t="e">
+        <f aca="false">C7/D7</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F7" s="0" t="n">
         <v>4531904</v>
       </c>
@@ -637,7 +1788,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>0.005566</v>
       </c>
@@ -650,6 +1801,10 @@
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E8" s="0" t="e">
+        <f aca="false">C8/D8</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F8" s="0" t="n">
         <v>4526360</v>
       </c>
@@ -693,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>0.006566</v>
       </c>
@@ -706,6 +1861,10 @@
       <c r="D9" s="0" t="n">
         <v>3753</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">C9/D9</f>
+        <v>3.99893418598455</v>
+      </c>
       <c r="F9" s="0" t="n">
         <v>1230256</v>
       </c>
@@ -749,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>0.007566</v>
       </c>
@@ -762,6 +1921,10 @@
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E10" s="0" t="e">
+        <f aca="false">C10/D10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
@@ -805,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>0.008566</v>
       </c>
@@ -818,6 +1981,10 @@
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E11" s="0" t="e">
+        <f aca="false">C11/D11</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
@@ -861,7 +2028,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>0.009566</v>
       </c>
@@ -874,6 +2041,10 @@
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E12" s="0" t="e">
+        <f aca="false">C12/D12</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F12" s="0" t="n">
         <v>22104</v>
       </c>
@@ -917,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>0.010566</v>
       </c>
@@ -930,6 +2101,10 @@
       <c r="D13" s="0" t="n">
         <v>4403</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">C13/D13</f>
+        <v>4</v>
+      </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
@@ -973,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>0.011566</v>
       </c>
@@ -986,6 +2161,10 @@
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E14" s="0" t="e">
+        <f aca="false">C14/D14</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
@@ -1029,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>0.012566</v>
       </c>
@@ -1042,6 +2221,10 @@
       <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E15" s="0" t="e">
+        <f aca="false">C15/D15</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
@@ -1085,7 +2268,7 @@
         <v>5846</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>0.013566</v>
       </c>
@@ -1098,6 +2281,10 @@
       <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E16" s="0" t="e">
+        <f aca="false">C16/D16</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F16" s="0" t="n">
         <v>13912</v>
       </c>
@@ -1141,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>0.014566</v>
       </c>
@@ -1154,6 +2341,10 @@
       <c r="D17" s="0" t="n">
         <v>3772</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">C17/D17</f>
+        <v>3.99893955461294</v>
+      </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
@@ -1197,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>0.015566</v>
       </c>
@@ -1210,6 +2401,10 @@
       <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E18" s="0" t="e">
+        <f aca="false">C18/D18</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
@@ -1253,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>0.016566</v>
       </c>
@@ -1266,6 +2461,10 @@
       <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E19" s="0" t="e">
+        <f aca="false">C19/D19</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
@@ -1309,7 +2508,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>0.017566</v>
       </c>
@@ -1322,6 +2521,10 @@
       <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E20" s="0" t="e">
+        <f aca="false">C20/D20</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F20" s="0" t="n">
         <v>13308</v>
       </c>
@@ -1365,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>0.018566</v>
       </c>
@@ -1378,6 +2581,10 @@
       <c r="D21" s="0" t="n">
         <v>3787</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">C21/D21</f>
+        <v>4</v>
+      </c>
       <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
@@ -1421,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>0.019566</v>
       </c>
@@ -1434,6 +2641,10 @@
       <c r="D22" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="0" t="e">
+        <f aca="false">C22/D22</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
@@ -1477,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>0.020566</v>
       </c>
@@ -1490,6 +2701,10 @@
       <c r="D23" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E23" s="0" t="e">
+        <f aca="false">C23/D23</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
@@ -1533,7 +2748,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>0.021566</v>
       </c>
@@ -1546,6 +2761,10 @@
       <c r="D24" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E24" s="0" t="e">
+        <f aca="false">C24/D24</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F24" s="0" t="n">
         <v>13308</v>
       </c>
@@ -1589,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>0.022566</v>
       </c>
@@ -1602,6 +2821,10 @@
       <c r="D25" s="0" t="n">
         <v>3582</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">C25/D25</f>
+        <v>3.99888330541597</v>
+      </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
@@ -1645,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>0.023566</v>
       </c>
@@ -1658,6 +2881,10 @@
       <c r="D26" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E26" s="0" t="e">
+        <f aca="false">C26/D26</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
@@ -1701,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>0.024566</v>
       </c>
@@ -1714,6 +2941,10 @@
       <c r="D27" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E27" s="0" t="e">
+        <f aca="false">C27/D27</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
@@ -1757,7 +2988,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>0.025566</v>
       </c>
@@ -1770,6 +3001,10 @@
       <c r="D28" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E28" s="0" t="e">
+        <f aca="false">C28/D28</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F28" s="0" t="n">
         <v>13308</v>
       </c>
@@ -1813,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>0.026566</v>
       </c>
@@ -1826,6 +3061,10 @@
       <c r="D29" s="0" t="n">
         <v>3579</v>
       </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">C29/D29</f>
+        <v>3.99888236937692</v>
+      </c>
       <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
@@ -1869,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>0.027566</v>
       </c>
@@ -1882,6 +3121,10 @@
       <c r="D30" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E30" s="0" t="e">
+        <f aca="false">C30/D30</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
       </c>
@@ -1925,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>0.028566</v>
       </c>
@@ -1938,6 +3181,10 @@
       <c r="D31" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E31" s="0" t="e">
+        <f aca="false">C31/D31</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
@@ -1981,7 +3228,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>0.029566</v>
       </c>
@@ -1994,6 +3241,10 @@
       <c r="D32" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E32" s="0" t="e">
+        <f aca="false">C32/D32</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F32" s="0" t="n">
         <v>13308</v>
       </c>
@@ -2037,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>0.030566</v>
       </c>
@@ -2050,6 +3301,10 @@
       <c r="D33" s="0" t="n">
         <v>3582</v>
       </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">C33/D33</f>
+        <v>3.99888330541597</v>
+      </c>
       <c r="F33" s="0" t="n">
         <v>0</v>
       </c>
@@ -2093,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>0.031566</v>
       </c>
@@ -2106,6 +3361,10 @@
       <c r="D34" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E34" s="0" t="e">
+        <f aca="false">C34/D34</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F34" s="0" t="n">
         <v>0</v>
       </c>
@@ -2149,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>0.032566</v>
       </c>
@@ -2162,6 +3421,10 @@
       <c r="D35" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E35" s="0" t="e">
+        <f aca="false">C35/D35</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
@@ -2205,7 +3468,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>0.033566</v>
       </c>
@@ -2218,6 +3481,10 @@
       <c r="D36" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E36" s="0" t="e">
+        <f aca="false">C36/D36</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F36" s="0" t="n">
         <v>13308</v>
       </c>
@@ -2261,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>0.034566</v>
       </c>
@@ -2274,6 +3541,10 @@
       <c r="D37" s="0" t="n">
         <v>3579</v>
       </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">C37/D37</f>
+        <v>3.99888236937692</v>
+      </c>
       <c r="F37" s="0" t="n">
         <v>0</v>
       </c>
@@ -2317,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>0.035566</v>
       </c>
@@ -2330,6 +3601,10 @@
       <c r="D38" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E38" s="0" t="e">
+        <f aca="false">C38/D38</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F38" s="0" t="n">
         <v>0</v>
       </c>
@@ -2373,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>0.036566</v>
       </c>
@@ -2386,6 +3661,10 @@
       <c r="D39" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E39" s="0" t="e">
+        <f aca="false">C39/D39</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
@@ -2429,7 +3708,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>0.037566</v>
       </c>
@@ -2442,6 +3721,10 @@
       <c r="D40" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E40" s="0" t="e">
+        <f aca="false">C40/D40</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F40" s="0" t="n">
         <v>13308</v>
       </c>
@@ -2485,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>0.038566</v>
       </c>
@@ -2498,6 +3781,10 @@
       <c r="D41" s="0" t="n">
         <v>3582</v>
       </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">C41/D41</f>
+        <v>3.99888330541597</v>
+      </c>
       <c r="F41" s="0" t="n">
         <v>0</v>
       </c>
@@ -2541,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>0.039566</v>
       </c>
@@ -2554,6 +3841,10 @@
       <c r="D42" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E42" s="0" t="e">
+        <f aca="false">C42/D42</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F42" s="0" t="n">
         <v>0</v>
       </c>
@@ -2597,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>0.040566</v>
       </c>
@@ -2610,6 +3901,10 @@
       <c r="D43" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E43" s="0" t="e">
+        <f aca="false">C43/D43</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
@@ -2653,7 +3948,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>0.041566</v>
       </c>
@@ -2666,6 +3961,10 @@
       <c r="D44" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E44" s="0" t="e">
+        <f aca="false">C44/D44</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F44" s="0" t="n">
         <v>13308</v>
       </c>
@@ -2709,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>0.042566</v>
       </c>
@@ -2722,6 +4021,10 @@
       <c r="D45" s="0" t="n">
         <v>3579</v>
       </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">C45/D45</f>
+        <v>3.99888236937692</v>
+      </c>
       <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
@@ -2765,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>0.043566</v>
       </c>
@@ -2778,6 +4081,10 @@
       <c r="D46" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E46" s="0" t="e">
+        <f aca="false">C46/D46</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F46" s="0" t="n">
         <v>0</v>
       </c>
@@ -2821,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>0.044566</v>
       </c>
@@ -2834,6 +4141,10 @@
       <c r="D47" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E47" s="0" t="e">
+        <f aca="false">C47/D47</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
@@ -2877,7 +4188,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>0.045566</v>
       </c>
@@ -2890,6 +4201,10 @@
       <c r="D48" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E48" s="0" t="e">
+        <f aca="false">C48/D48</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F48" s="0" t="n">
         <v>13308</v>
       </c>
@@ -2933,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>0.046566</v>
       </c>
@@ -2946,6 +4261,10 @@
       <c r="D49" s="0" t="n">
         <v>3582</v>
       </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">C49/D49</f>
+        <v>3.99888330541597</v>
+      </c>
       <c r="F49" s="0" t="n">
         <v>0</v>
       </c>
@@ -2989,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>0.047566</v>
       </c>
@@ -3002,6 +4321,10 @@
       <c r="D50" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E50" s="0" t="e">
+        <f aca="false">C50/D50</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
@@ -3045,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>0.048566</v>
       </c>
@@ -3058,6 +4381,10 @@
       <c r="D51" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E51" s="0" t="e">
+        <f aca="false">C51/D51</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F51" s="0" t="n">
         <v>0</v>
       </c>
@@ -3101,7 +4428,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>0.049566</v>
       </c>
@@ -3114,6 +4441,10 @@
       <c r="D52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E52" s="0" t="e">
+        <f aca="false">C52/D52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F52" s="0" t="n">
         <v>13308</v>
       </c>
@@ -3157,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>0.050566</v>
       </c>
@@ -3170,6 +4501,10 @@
       <c r="D53" s="0" t="n">
         <v>3579</v>
       </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">C53/D53</f>
+        <v>3.99888236937692</v>
+      </c>
       <c r="F53" s="0" t="n">
         <v>0</v>
       </c>
@@ -3213,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>0.051566</v>
       </c>
@@ -3226,6 +4561,10 @@
       <c r="D54" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E54" s="0" t="e">
+        <f aca="false">C54/D54</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F54" s="0" t="n">
         <v>0</v>
       </c>
@@ -3269,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>0.052566</v>
       </c>
@@ -3282,6 +4621,10 @@
       <c r="D55" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E55" s="0" t="e">
+        <f aca="false">C55/D55</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F55" s="0" t="n">
         <v>0</v>
       </c>
@@ -3325,7 +4668,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>0.053566</v>
       </c>
@@ -3338,6 +4681,10 @@
       <c r="D56" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E56" s="0" t="e">
+        <f aca="false">C56/D56</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F56" s="0" t="n">
         <v>13308</v>
       </c>
@@ -3381,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>0.054566</v>
       </c>
@@ -3394,6 +4741,10 @@
       <c r="D57" s="0" t="n">
         <v>3582</v>
       </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">C57/D57</f>
+        <v>3.99888330541597</v>
+      </c>
       <c r="F57" s="0" t="n">
         <v>0</v>
       </c>
@@ -3437,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>0.055566</v>
       </c>
@@ -3450,6 +4801,10 @@
       <c r="D58" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E58" s="0" t="e">
+        <f aca="false">C58/D58</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F58" s="0" t="n">
         <v>0</v>
       </c>
@@ -3493,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>0.056566</v>
       </c>
@@ -3506,6 +4861,10 @@
       <c r="D59" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E59" s="0" t="e">
+        <f aca="false">C59/D59</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F59" s="0" t="n">
         <v>0</v>
       </c>
@@ -3549,7 +4908,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>0.057566</v>
       </c>
@@ -3562,6 +4921,10 @@
       <c r="D60" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E60" s="0" t="e">
+        <f aca="false">C60/D60</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F60" s="0" t="n">
         <v>13308</v>
       </c>
@@ -3605,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>0.058566</v>
       </c>
@@ -3618,6 +4981,10 @@
       <c r="D61" s="0" t="n">
         <v>3579</v>
       </c>
+      <c r="E61" s="0" t="n">
+        <f aca="false">C61/D61</f>
+        <v>3.99888236937692</v>
+      </c>
       <c r="F61" s="0" t="n">
         <v>0</v>
       </c>
@@ -3661,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>0.059566</v>
       </c>
@@ -3674,6 +5041,10 @@
       <c r="D62" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E62" s="0" t="e">
+        <f aca="false">C62/D62</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F62" s="0" t="n">
         <v>0</v>
       </c>
@@ -3717,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>0.060566</v>
       </c>
@@ -3730,6 +5101,10 @@
       <c r="D63" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E63" s="0" t="e">
+        <f aca="false">C63/D63</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F63" s="0" t="n">
         <v>0</v>
       </c>
@@ -3773,7 +5148,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>0.061566</v>
       </c>
@@ -3786,6 +5161,10 @@
       <c r="D64" s="0" t="n">
         <v>379</v>
       </c>
+      <c r="E64" s="0" t="n">
+        <f aca="false">C64/D64</f>
+        <v>0.997361477572559</v>
+      </c>
       <c r="F64" s="0" t="n">
         <v>13686</v>
       </c>
@@ -3829,119 +5208,127 @@
         <v>958</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
         <v>0.061743</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>177193695</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>9542</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>2599</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="E65" s="1" t="n">
+        <f aca="false">C65/D65</f>
+        <v>3.67141208156983</v>
+      </c>
+      <c r="F65" s="1" t="n">
         <v>1156</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65" s="1" t="n">
         <v>579</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="I65" s="1" t="n">
         <v>543144</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65" s="1" t="n">
         <v>70867</v>
       </c>
-      <c r="L65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="L65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
         <v>0.000823</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>-60920104037</v>
       </c>
-      <c r="C66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" s="0" t="n">
+      <c r="C66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="n">
         <v>51810</v>
       </c>
-      <c r="F66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="0" t="n">
+      <c r="E66" s="1" t="n">
+        <f aca="false">C66/D66</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="n">
         <v>154166</v>
       </c>
-      <c r="M66" s="0" t="n">
+      <c r="M66" s="1" t="n">
         <v>347149</v>
       </c>
-      <c r="O66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" s="0" t="n">
+      <c r="O66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="n">
         <v>279685</v>
       </c>
-      <c r="R66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" s="0" t="n">
+      <c r="R66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1" t="n">
         <v>260743</v>
       </c>
-      <c r="U66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" s="0" t="n">
+      <c r="U66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1" t="n">
         <v>224233</v>
       </c>
-      <c r="X66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="0" t="n">
+      <c r="X66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1" t="n">
         <v>191957</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>0.001823</v>
       </c>
@@ -3954,6 +5341,10 @@
       <c r="D67" s="0" t="n">
         <v>565313</v>
       </c>
+      <c r="E67" s="0" t="n">
+        <f aca="false">C67/D67</f>
+        <v>1</v>
+      </c>
       <c r="F67" s="0" t="n">
         <v>565066</v>
       </c>
@@ -3997,7 +5388,7 @@
         <v>565446</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>0.002823</v>
       </c>
@@ -4010,6 +5401,10 @@
       <c r="D68" s="0" t="n">
         <v>565413</v>
       </c>
+      <c r="E68" s="0" t="n">
+        <f aca="false">C68/D68</f>
+        <v>1</v>
+      </c>
       <c r="F68" s="0" t="n">
         <v>565352</v>
       </c>
@@ -4053,7 +5448,7 @@
         <v>564811</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>0.003823</v>
       </c>
@@ -4066,6 +5461,10 @@
       <c r="D69" s="0" t="n">
         <v>565486</v>
       </c>
+      <c r="E69" s="0" t="n">
+        <f aca="false">C69/D69</f>
+        <v>1</v>
+      </c>
       <c r="F69" s="0" t="n">
         <v>564796</v>
       </c>
@@ -4109,7 +5508,7 @@
         <v>565454</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>0.004823</v>
       </c>
@@ -4122,6 +5521,10 @@
       <c r="D70" s="0" t="n">
         <v>564960</v>
       </c>
+      <c r="E70" s="0" t="n">
+        <f aca="false">C70/D70</f>
+        <v>0.999998229963183</v>
+      </c>
       <c r="F70" s="0" t="n">
         <v>565225</v>
       </c>
@@ -4165,7 +5568,7 @@
         <v>565448</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>0.005823</v>
       </c>
@@ -4178,6 +5581,10 @@
       <c r="D71" s="0" t="n">
         <v>565381</v>
       </c>
+      <c r="E71" s="0" t="n">
+        <f aca="false">C71/D71</f>
+        <v>1</v>
+      </c>
       <c r="F71" s="0" t="n">
         <v>565349</v>
       </c>
@@ -4221,7 +5628,7 @@
         <v>565465</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>0.006823</v>
       </c>
@@ -4234,6 +5641,10 @@
       <c r="D72" s="0" t="n">
         <v>565491</v>
       </c>
+      <c r="E72" s="0" t="n">
+        <f aca="false">C72/D72</f>
+        <v>1.00000176837474</v>
+      </c>
       <c r="F72" s="0" t="n">
         <v>565371</v>
       </c>
@@ -4277,7 +5688,7 @@
         <v>565013</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>0.007823</v>
       </c>
@@ -4290,6 +5701,10 @@
       <c r="D73" s="0" t="n">
         <v>565425</v>
       </c>
+      <c r="E73" s="0" t="n">
+        <f aca="false">C73/D73</f>
+        <v>0.999998231418844</v>
+      </c>
       <c r="F73" s="0" t="n">
         <v>564895</v>
       </c>
@@ -4333,7 +5748,7 @@
         <v>565450</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>0.008823</v>
       </c>
@@ -4346,6 +5761,10 @@
       <c r="D74" s="0" t="n">
         <v>564910</v>
       </c>
+      <c r="E74" s="0" t="n">
+        <f aca="false">C74/D74</f>
+        <v>0.999998229806518</v>
+      </c>
       <c r="F74" s="0" t="n">
         <v>565265</v>
       </c>
@@ -4389,7 +5808,7 @@
         <v>565465</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>0.009823</v>
       </c>
@@ -4402,6 +5821,10 @@
       <c r="D75" s="0" t="n">
         <v>565483</v>
       </c>
+      <c r="E75" s="0" t="n">
+        <f aca="false">C75/D75</f>
+        <v>1</v>
+      </c>
       <c r="F75" s="0" t="n">
         <v>565366</v>
       </c>
@@ -4445,7 +5868,7 @@
         <v>565460</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>0.010823</v>
       </c>
@@ -4458,6 +5881,10 @@
       <c r="D76" s="0" t="n">
         <v>565442</v>
       </c>
+      <c r="E76" s="0" t="n">
+        <f aca="false">C76/D76</f>
+        <v>1</v>
+      </c>
       <c r="F76" s="0" t="n">
         <v>565300</v>
       </c>
@@ -4501,7 +5928,7 @@
         <v>564998</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>0.011823</v>
       </c>
@@ -4514,6 +5941,10 @@
       <c r="D77" s="0" t="n">
         <v>565385</v>
       </c>
+      <c r="E77" s="0" t="n">
+        <f aca="false">C77/D77</f>
+        <v>1</v>
+      </c>
       <c r="F77" s="0" t="n">
         <v>564954</v>
       </c>
@@ -4557,7 +5988,7 @@
         <v>565460</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>0.012823</v>
       </c>
@@ -4570,6 +6001,10 @@
       <c r="D78" s="0" t="n">
         <v>565042</v>
       </c>
+      <c r="E78" s="0" t="n">
+        <f aca="false">C78/D78</f>
+        <v>0.999998230220054</v>
+      </c>
       <c r="F78" s="0" t="n">
         <v>565303</v>
       </c>
@@ -4613,7 +6048,7 @@
         <v>565462</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>0.013823</v>
       </c>
@@ -4626,6 +6061,10 @@
       <c r="D79" s="0" t="n">
         <v>565425</v>
       </c>
+      <c r="E79" s="0" t="n">
+        <f aca="false">C79/D79</f>
+        <v>1</v>
+      </c>
       <c r="F79" s="0" t="n">
         <v>565299</v>
       </c>
@@ -4669,7 +6108,7 @@
         <v>565455</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>0.014823</v>
       </c>
@@ -4682,6 +6121,10 @@
       <c r="D80" s="0" t="n">
         <v>565388</v>
       </c>
+      <c r="E80" s="0" t="n">
+        <f aca="false">C80/D80</f>
+        <v>1</v>
+      </c>
       <c r="F80" s="0" t="n">
         <v>565348</v>
       </c>
@@ -4725,7 +6168,7 @@
         <v>565031</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>0.015823</v>
       </c>
@@ -4738,6 +6181,10 @@
       <c r="D81" s="0" t="n">
         <v>565479</v>
       </c>
+      <c r="E81" s="0" t="n">
+        <f aca="false">C81/D81</f>
+        <v>1.00000176841227</v>
+      </c>
       <c r="F81" s="0" t="n">
         <v>565006</v>
       </c>
@@ -4781,7 +6228,7 @@
         <v>565447</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>0.016823</v>
       </c>
@@ -4794,6 +6241,10 @@
       <c r="D82" s="0" t="n">
         <v>565017</v>
       </c>
+      <c r="E82" s="0" t="n">
+        <f aca="false">C82/D82</f>
+        <v>0.999996460283496</v>
+      </c>
       <c r="F82" s="0" t="n">
         <v>565226</v>
       </c>
@@ -4837,7 +6288,7 @@
         <v>565463</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>0.017823</v>
       </c>
@@ -4850,6 +6301,10 @@
       <c r="D83" s="0" t="n">
         <v>565371</v>
       </c>
+      <c r="E83" s="0" t="n">
+        <f aca="false">C83/D83</f>
+        <v>1</v>
+      </c>
       <c r="F83" s="0" t="n">
         <v>565354</v>
       </c>
@@ -4893,7 +6348,7 @@
         <v>565441</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>0.018823</v>
       </c>
@@ -4906,6 +6361,10 @@
       <c r="D84" s="0" t="n">
         <v>565482</v>
       </c>
+      <c r="E84" s="0" t="n">
+        <f aca="false">C84/D84</f>
+        <v>1.00000176840288</v>
+      </c>
       <c r="F84" s="0" t="n">
         <v>565365</v>
       </c>
@@ -4949,7 +6408,7 @@
         <v>565058</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>0.019823</v>
       </c>
@@ -4962,6 +6421,10 @@
       <c r="D85" s="0" t="n">
         <v>565446</v>
       </c>
+      <c r="E85" s="0" t="n">
+        <f aca="false">C85/D85</f>
+        <v>0.999998231484527</v>
+      </c>
       <c r="F85" s="0" t="n">
         <v>564935</v>
       </c>
@@ -5005,7 +6468,7 @@
         <v>565464</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>0.020823</v>
       </c>
@@ -5018,6 +6481,10 @@
       <c r="D86" s="0" t="n">
         <v>564953</v>
       </c>
+      <c r="E86" s="0" t="n">
+        <f aca="false">C86/D86</f>
+        <v>0.999998229941252</v>
+      </c>
       <c r="F86" s="0" t="n">
         <v>565278</v>
       </c>
@@ -5061,7 +6528,7 @@
         <v>565446</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>0.021823</v>
       </c>
@@ -5074,6 +6541,10 @@
       <c r="D87" s="0" t="n">
         <v>565458</v>
       </c>
+      <c r="E87" s="0" t="n">
+        <f aca="false">C87/D87</f>
+        <v>1</v>
+      </c>
       <c r="F87" s="0" t="n">
         <v>565360</v>
       </c>
@@ -5117,7 +6588,7 @@
         <v>565471</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>0.022823</v>
       </c>
@@ -5130,6 +6601,10 @@
       <c r="D88" s="0" t="n">
         <v>565449</v>
       </c>
+      <c r="E88" s="0" t="n">
+        <f aca="false">C88/D88</f>
+        <v>1</v>
+      </c>
       <c r="F88" s="0" t="n">
         <v>565306</v>
       </c>
@@ -5173,7 +6648,7 @@
         <v>565048</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>0.023823</v>
       </c>
@@ -5186,6 +6661,10 @@
       <c r="D89" s="0" t="n">
         <v>565389</v>
       </c>
+      <c r="E89" s="0" t="n">
+        <f aca="false">C89/D89</f>
+        <v>1</v>
+      </c>
       <c r="F89" s="0" t="n">
         <v>564973</v>
       </c>
@@ -5229,7 +6708,7 @@
         <v>565442</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>0.024823</v>
       </c>
@@ -5242,6 +6721,10 @@
       <c r="D90" s="0" t="n">
         <v>565046</v>
       </c>
+      <c r="E90" s="0" t="n">
+        <f aca="false">C90/D90</f>
+        <v>0.999998230232583</v>
+      </c>
       <c r="F90" s="0" t="n">
         <v>565301</v>
       </c>
@@ -5285,7 +6768,7 @@
         <v>565462</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>0.025823</v>
       </c>
@@ -5298,6 +6781,10 @@
       <c r="D91" s="0" t="n">
         <v>565441</v>
       </c>
+      <c r="E91" s="0" t="n">
+        <f aca="false">C91/D91</f>
+        <v>1</v>
+      </c>
       <c r="F91" s="0" t="n">
         <v>565306</v>
       </c>
@@ -5341,7 +6828,7 @@
         <v>565476</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>0.026823</v>
       </c>
@@ -5354,6 +6841,10 @@
       <c r="D92" s="0" t="n">
         <v>565404</v>
       </c>
+      <c r="E92" s="0" t="n">
+        <f aca="false">C92/D92</f>
+        <v>1</v>
+      </c>
       <c r="F92" s="0" t="n">
         <v>565346</v>
       </c>
@@ -5397,7 +6888,7 @@
         <v>565027</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>0.027823</v>
       </c>
@@ -5410,6 +6901,10 @@
       <c r="D93" s="0" t="n">
         <v>565459</v>
       </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">C93/D93</f>
+        <v>1</v>
+      </c>
       <c r="F93" s="0" t="n">
         <v>565006</v>
       </c>
@@ -5453,7 +6948,7 @@
         <v>565462</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>0.028823</v>
       </c>
@@ -5466,6 +6961,10 @@
       <c r="D94" s="0" t="n">
         <v>565007</v>
       </c>
+      <c r="E94" s="0" t="n">
+        <f aca="false">C94/D94</f>
+        <v>0.999998230110423</v>
+      </c>
       <c r="F94" s="0" t="n">
         <v>565232</v>
       </c>
@@ -5509,7 +7008,7 @@
         <v>565469</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>0.029823</v>
       </c>
@@ -5522,6 +7021,10 @@
       <c r="D95" s="0" t="n">
         <v>565418</v>
       </c>
+      <c r="E95" s="0" t="n">
+        <f aca="false">C95/D95</f>
+        <v>1</v>
+      </c>
       <c r="F95" s="0" t="n">
         <v>565342</v>
       </c>
@@ -5565,7 +7068,7 @@
         <v>565440</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>0.030823</v>
       </c>
@@ -5578,6 +7081,10 @@
       <c r="D96" s="0" t="n">
         <v>565449</v>
       </c>
+      <c r="E96" s="0" t="n">
+        <f aca="false">C96/D96</f>
+        <v>1</v>
+      </c>
       <c r="F96" s="0" t="n">
         <v>565370</v>
       </c>
@@ -5621,7 +7128,7 @@
         <v>565048</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>0.031823</v>
       </c>
@@ -5634,6 +7141,10 @@
       <c r="D97" s="0" t="n">
         <v>565433</v>
       </c>
+      <c r="E97" s="0" t="n">
+        <f aca="false">C97/D97</f>
+        <v>1</v>
+      </c>
       <c r="F97" s="0" t="n">
         <v>564940</v>
       </c>
@@ -5677,7 +7188,7 @@
         <v>565460</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>0.032823</v>
       </c>
@@ -5690,6 +7201,10 @@
       <c r="D98" s="0" t="n">
         <v>564985</v>
       </c>
+      <c r="E98" s="0" t="n">
+        <f aca="false">C98/D98</f>
+        <v>0.999998230041506</v>
+      </c>
       <c r="F98" s="0" t="n">
         <v>565266</v>
       </c>
@@ -5733,7 +7248,7 @@
         <v>565405</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>0.033823</v>
       </c>
@@ -5746,6 +7261,10 @@
       <c r="D99" s="0" t="n">
         <v>565449</v>
       </c>
+      <c r="E99" s="0" t="n">
+        <f aca="false">C99/D99</f>
+        <v>1</v>
+      </c>
       <c r="F99" s="0" t="n">
         <v>565370</v>
       </c>
@@ -5789,7 +7308,7 @@
         <v>565398</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>0.034823</v>
       </c>
@@ -5802,6 +7321,10 @@
       <c r="D100" s="0" t="n">
         <v>565437</v>
       </c>
+      <c r="E100" s="0" t="n">
+        <f aca="false">C100/D100</f>
+        <v>1</v>
+      </c>
       <c r="F100" s="0" t="n">
         <v>565304</v>
       </c>
@@ -5845,7 +7368,7 @@
         <v>565067</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>0.035823</v>
       </c>
@@ -5858,6 +7381,10 @@
       <c r="D101" s="0" t="n">
         <v>565418</v>
       </c>
+      <c r="E101" s="0" t="n">
+        <f aca="false">C101/D101</f>
+        <v>1</v>
+      </c>
       <c r="F101" s="0" t="n">
         <v>564970</v>
       </c>
@@ -5901,7 +7428,7 @@
         <v>565352</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>0.036823</v>
       </c>
@@ -5914,6 +7441,10 @@
       <c r="D102" s="0" t="n">
         <v>565021</v>
       </c>
+      <c r="E102" s="0" t="n">
+        <f aca="false">C102/D102</f>
+        <v>0.999998230154277</v>
+      </c>
       <c r="F102" s="0" t="n">
         <v>565300</v>
       </c>
@@ -5957,7 +7488,7 @@
         <v>565362</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>0.037823</v>
       </c>
@@ -5970,6 +7501,10 @@
       <c r="D103" s="0" t="n">
         <v>565436</v>
       </c>
+      <c r="E103" s="0" t="n">
+        <f aca="false">C103/D103</f>
+        <v>1</v>
+      </c>
       <c r="F103" s="0" t="n">
         <v>565306</v>
       </c>
@@ -6013,7 +7548,7 @@
         <v>565426</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>0.038823</v>
       </c>
@@ -6026,6 +7561,10 @@
       <c r="D104" s="0" t="n">
         <v>565420</v>
       </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">C104/D104</f>
+        <v>1</v>
+      </c>
       <c r="F104" s="0" t="n">
         <v>565342</v>
       </c>
@@ -6069,7 +7608,7 @@
         <v>564897</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>0.039823</v>
       </c>
@@ -6082,6 +7621,10 @@
       <c r="D105" s="0" t="n">
         <v>565441</v>
       </c>
+      <c r="E105" s="0" t="n">
+        <f aca="false">C105/D105</f>
+        <v>1</v>
+      </c>
       <c r="F105" s="0" t="n">
         <v>565003</v>
       </c>
@@ -6125,7 +7668,7 @@
         <v>565324</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>0.040823</v>
       </c>
@@ -6138,6 +7681,10 @@
       <c r="D106" s="0" t="n">
         <v>565029</v>
       </c>
+      <c r="E106" s="0" t="n">
+        <f aca="false">C106/D106</f>
+        <v>0.999998230179336</v>
+      </c>
       <c r="F106" s="0" t="n">
         <v>565223</v>
       </c>
@@ -6181,7 +7728,7 @@
         <v>565418</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>0.041823</v>
       </c>
@@ -6194,6 +7741,10 @@
       <c r="D107" s="0" t="n">
         <v>565402</v>
       </c>
+      <c r="E107" s="0" t="n">
+        <f aca="false">C107/D107</f>
+        <v>1</v>
+      </c>
       <c r="F107" s="0" t="n">
         <v>565341</v>
       </c>
@@ -6237,7 +7788,7 @@
         <v>565319</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>0.042823</v>
       </c>
@@ -6250,6 +7801,10 @@
       <c r="D108" s="0" t="n">
         <v>565445</v>
       </c>
+      <c r="E108" s="0" t="n">
+        <f aca="false">C108/D108</f>
+        <v>1</v>
+      </c>
       <c r="F108" s="0" t="n">
         <v>565372</v>
       </c>
@@ -6293,7 +7848,7 @@
         <v>564948</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>0.043823</v>
       </c>
@@ -6306,6 +7861,10 @@
       <c r="D109" s="0" t="n">
         <v>565429</v>
       </c>
+      <c r="E109" s="0" t="n">
+        <f aca="false">C109/D109</f>
+        <v>1</v>
+      </c>
       <c r="F109" s="0" t="n">
         <v>564923</v>
       </c>
@@ -6349,7 +7908,7 @@
         <v>565442</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>0.044823</v>
       </c>
@@ -6362,6 +7921,10 @@
       <c r="D110" s="0" t="n">
         <v>564955</v>
       </c>
+      <c r="E110" s="0" t="n">
+        <f aca="false">C110/D110</f>
+        <v>0.999998229947518</v>
+      </c>
       <c r="F110" s="0" t="n">
         <v>565243</v>
       </c>
@@ -6405,7 +7968,7 @@
         <v>565382</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>0.045823</v>
       </c>
@@ -6418,6 +7981,10 @@
       <c r="D111" s="0" t="n">
         <v>565427</v>
       </c>
+      <c r="E111" s="0" t="n">
+        <f aca="false">C111/D111</f>
+        <v>1.0000017685749</v>
+      </c>
       <c r="F111" s="0" t="n">
         <v>565340</v>
       </c>
@@ -6461,7 +8028,7 @@
         <v>565405</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>0.046823</v>
       </c>
@@ -6474,6 +8041,10 @@
       <c r="D112" s="0" t="n">
         <v>565386</v>
       </c>
+      <c r="E112" s="0" t="n">
+        <f aca="false">C112/D112</f>
+        <v>0.999998231296848</v>
+      </c>
       <c r="F112" s="0" t="n">
         <v>565249</v>
       </c>
@@ -6517,7 +8088,7 @@
         <v>565042</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>0.047823</v>
       </c>
@@ -6530,6 +8101,10 @@
       <c r="D113" s="0" t="n">
         <v>565335</v>
       </c>
+      <c r="E113" s="0" t="n">
+        <f aca="false">C113/D113</f>
+        <v>1</v>
+      </c>
       <c r="F113" s="0" t="n">
         <v>564894</v>
       </c>
@@ -6573,7 +8148,7 @@
         <v>565422</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>0.048823</v>
       </c>
@@ -6586,6 +8161,10 @@
       <c r="D114" s="0" t="n">
         <v>565021</v>
       </c>
+      <c r="E114" s="0" t="n">
+        <f aca="false">C114/D114</f>
+        <v>1</v>
+      </c>
       <c r="F114" s="0" t="n">
         <v>565280</v>
       </c>
@@ -6629,7 +8208,7 @@
         <v>565449</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>0.049823</v>
       </c>
@@ -6642,6 +8221,10 @@
       <c r="D115" s="0" t="n">
         <v>565322</v>
       </c>
+      <c r="E115" s="0" t="n">
+        <f aca="false">C115/D115</f>
+        <v>1</v>
+      </c>
       <c r="F115" s="0" t="n">
         <v>565201</v>
       </c>
@@ -6685,7 +8268,7 @@
         <v>565484</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>0.050823</v>
       </c>
@@ -6698,6 +8281,10 @@
       <c r="D116" s="0" t="n">
         <v>565298</v>
       </c>
+      <c r="E116" s="0" t="n">
+        <f aca="false">C116/D116</f>
+        <v>0.999998231021514</v>
+      </c>
       <c r="F116" s="0" t="n">
         <v>565225</v>
       </c>
@@ -6741,7 +8328,7 @@
         <v>565029</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>0.051823</v>
       </c>
@@ -6754,6 +8341,10 @@
       <c r="D117" s="0" t="n">
         <v>565388</v>
       </c>
+      <c r="E117" s="0" t="n">
+        <f aca="false">C117/D117</f>
+        <v>1.0000017686969</v>
+      </c>
       <c r="F117" s="0" t="n">
         <v>564928</v>
       </c>
@@ -6797,7 +8388,7 @@
         <v>565445</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>0.052823</v>
       </c>
@@ -6810,6 +8401,10 @@
       <c r="D118" s="0" t="n">
         <v>564888</v>
       </c>
+      <c r="E118" s="0" t="n">
+        <f aca="false">C118/D118</f>
+        <v>0.999998229737576</v>
+      </c>
       <c r="F118" s="0" t="n">
         <v>565132</v>
       </c>
@@ -6853,7 +8448,7 @@
         <v>565486</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>0.053823</v>
       </c>
@@ -6866,6 +8461,10 @@
       <c r="D119" s="0" t="n">
         <v>565318</v>
       </c>
+      <c r="E119" s="0" t="n">
+        <f aca="false">C119/D119</f>
+        <v>0.999998231084098</v>
+      </c>
       <c r="F119" s="0" t="n">
         <v>565236</v>
       </c>
@@ -6909,7 +8508,7 @@
         <v>565437</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>0.054823</v>
       </c>
@@ -6922,6 +8521,10 @@
       <c r="D120" s="0" t="n">
         <v>565387</v>
       </c>
+      <c r="E120" s="0" t="n">
+        <f aca="false">C120/D120</f>
+        <v>1</v>
+      </c>
       <c r="F120" s="0" t="n">
         <v>565308</v>
       </c>
@@ -6965,7 +8568,7 @@
         <v>565043</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>0.055823</v>
       </c>
@@ -6978,6 +8581,10 @@
       <c r="D121" s="0" t="n">
         <v>565331</v>
       </c>
+      <c r="E121" s="0" t="n">
+        <f aca="false">C121/D121</f>
+        <v>1</v>
+      </c>
       <c r="F121" s="0" t="n">
         <v>564840</v>
       </c>
@@ -7021,7 +8628,7 @@
         <v>565484</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>0.056823</v>
       </c>
@@ -7034,6 +8641,10 @@
       <c r="D122" s="0" t="n">
         <v>564908</v>
       </c>
+      <c r="E122" s="0" t="n">
+        <f aca="false">C122/D122</f>
+        <v>0.999998229800251</v>
+      </c>
       <c r="F122" s="0" t="n">
         <v>565156</v>
       </c>
@@ -7077,7 +8688,7 @@
         <v>565441</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>0.057823</v>
       </c>
@@ -7090,6 +8701,10 @@
       <c r="D123" s="0" t="n">
         <v>565411</v>
       </c>
+      <c r="E123" s="0" t="n">
+        <f aca="false">C123/D123</f>
+        <v>1</v>
+      </c>
       <c r="F123" s="0" t="n">
         <v>565343</v>
       </c>
@@ -7133,7 +8748,7 @@
         <v>565456</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>0.058823</v>
       </c>
@@ -7146,6 +8761,10 @@
       <c r="D124" s="0" t="n">
         <v>565368</v>
       </c>
+      <c r="E124" s="0" t="n">
+        <f aca="false">C124/D124</f>
+        <v>1</v>
+      </c>
       <c r="F124" s="0" t="n">
         <v>565253</v>
       </c>
@@ -7189,7 +8808,7 @@
         <v>565072</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>0.059823</v>
       </c>
@@ -7202,6 +8821,10 @@
       <c r="D125" s="0" t="n">
         <v>565417</v>
       </c>
+      <c r="E125" s="0" t="n">
+        <f aca="false">C125/D125</f>
+        <v>1</v>
+      </c>
       <c r="F125" s="0" t="n">
         <v>564921</v>
       </c>
@@ -7245,119 +8868,127 @@
         <v>565436</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+    <row r="126" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
         <v>0.060423</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>600090780</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>359605</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126" s="1" t="n">
         <v>275682</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="E126" s="1" t="n">
+        <f aca="false">C126/D126</f>
+        <v>1.30441958488403</v>
+      </c>
+      <c r="F126" s="1" t="n">
         <v>316183</v>
       </c>
-      <c r="G126" s="0" t="n">
+      <c r="G126" s="1" t="n">
         <v>263441</v>
       </c>
-      <c r="I126" s="0" t="n">
+      <c r="I126" s="1" t="n">
         <v>811435</v>
       </c>
-      <c r="J126" s="0" t="n">
+      <c r="J126" s="1" t="n">
         <v>333176</v>
       </c>
-      <c r="L126" s="0" t="n">
+      <c r="L126" s="1" t="n">
         <v>135877</v>
       </c>
-      <c r="M126" s="0" t="n">
+      <c r="M126" s="1" t="n">
         <v>135879</v>
       </c>
-      <c r="O126" s="0" t="n">
+      <c r="O126" s="1" t="n">
         <v>206823</v>
       </c>
-      <c r="P126" s="0" t="n">
+      <c r="P126" s="1" t="n">
         <v>206824</v>
       </c>
-      <c r="R126" s="0" t="n">
+      <c r="R126" s="1" t="n">
         <v>173715</v>
       </c>
-      <c r="S126" s="0" t="n">
+      <c r="S126" s="1" t="n">
         <v>173716</v>
       </c>
-      <c r="U126" s="0" t="n">
+      <c r="U126" s="1" t="n">
         <v>236620</v>
       </c>
-      <c r="V126" s="0" t="n">
+      <c r="V126" s="1" t="n">
         <v>223708</v>
       </c>
-      <c r="X126" s="0" t="n">
+      <c r="X126" s="1" t="n">
         <v>208164</v>
       </c>
-      <c r="Y126" s="0" t="n">
+      <c r="Y126" s="1" t="n">
         <v>208036</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+    <row r="127" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
         <v>0.0004</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>-60022987865</v>
       </c>
-      <c r="C127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y127" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="e">
+        <f aca="false">C127/D127</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>0.0014</v>
       </c>
@@ -7370,6 +9001,10 @@
       <c r="D128" s="0" t="n">
         <v>134807</v>
       </c>
+      <c r="E128" s="0" t="n">
+        <f aca="false">C128/D128</f>
+        <v>7.99994065590066</v>
+      </c>
       <c r="F128" s="0" t="n">
         <v>0</v>
       </c>
@@ -7413,7 +9048,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>0.0024</v>
       </c>
@@ -7426,6 +9061,10 @@
       <c r="D129" s="0" t="n">
         <v>579009</v>
       </c>
+      <c r="E129" s="0" t="n">
+        <f aca="false">C129/D129</f>
+        <v>7.90476141130794</v>
+      </c>
       <c r="F129" s="0" t="n">
         <v>0</v>
       </c>
@@ -7469,7 +9108,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>0.0034</v>
       </c>
@@ -7482,6 +9121,10 @@
       <c r="D130" s="0" t="n">
         <v>579588</v>
       </c>
+      <c r="E130" s="0" t="n">
+        <f aca="false">C130/D130</f>
+        <v>7.87324099187699</v>
+      </c>
       <c r="F130" s="0" t="n">
         <v>13880</v>
       </c>
@@ -7525,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>0.0044</v>
       </c>
@@ -7538,6 +9181,10 @@
       <c r="D131" s="0" t="n">
         <v>578821</v>
       </c>
+      <c r="E131" s="0" t="n">
+        <f aca="false">C131/D131</f>
+        <v>7.99998617880139</v>
+      </c>
       <c r="F131" s="0" t="n">
         <v>0</v>
       </c>
@@ -7581,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>0.0054</v>
       </c>
@@ -7594,6 +9241,10 @@
       <c r="D132" s="0" t="n">
         <v>579479</v>
       </c>
+      <c r="E132" s="0" t="n">
+        <f aca="false">C132/D132</f>
+        <v>8</v>
+      </c>
       <c r="F132" s="0" t="n">
         <v>0</v>
       </c>
@@ -7637,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>0.0064</v>
       </c>
@@ -7650,6 +9301,10 @@
       <c r="D133" s="0" t="n">
         <v>576794</v>
       </c>
+      <c r="E133" s="0" t="n">
+        <f aca="false">C133/D133</f>
+        <v>7.9097702125889</v>
+      </c>
       <c r="F133" s="0" t="n">
         <v>0</v>
       </c>
@@ -7693,7 +9348,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>0.0074</v>
       </c>
@@ -7706,6 +9361,10 @@
       <c r="D134" s="0" t="n">
         <v>579872</v>
       </c>
+      <c r="E134" s="0" t="n">
+        <f aca="false">C134/D134</f>
+        <v>7.88101512057833</v>
+      </c>
       <c r="F134" s="0" t="n">
         <v>14080</v>
       </c>
@@ -7749,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>0.0084</v>
       </c>
@@ -7762,6 +9421,10 @@
       <c r="D135" s="0" t="n">
         <v>578841</v>
       </c>
+      <c r="E135" s="0" t="n">
+        <f aca="false">C135/D135</f>
+        <v>8</v>
+      </c>
       <c r="F135" s="0" t="n">
         <v>0</v>
       </c>
@@ -7805,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>0.0094</v>
       </c>
@@ -7818,6 +9481,10 @@
       <c r="D136" s="0" t="n">
         <v>580819</v>
       </c>
+      <c r="E136" s="0" t="n">
+        <f aca="false">C136/D136</f>
+        <v>8</v>
+      </c>
       <c r="F136" s="0" t="n">
         <v>0</v>
       </c>
@@ -7861,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>0.0104</v>
       </c>
@@ -7874,6 +9541,10 @@
       <c r="D137" s="0" t="n">
         <v>579578</v>
       </c>
+      <c r="E137" s="0" t="n">
+        <f aca="false">C137/D137</f>
+        <v>7.89537905165482</v>
+      </c>
       <c r="F137" s="0" t="n">
         <v>0</v>
       </c>
@@ -7917,7 +9588,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>0.0114</v>
       </c>
@@ -7930,6 +9601,10 @@
       <c r="D138" s="0" t="n">
         <v>582179</v>
       </c>
+      <c r="E138" s="0" t="n">
+        <f aca="false">C138/D138</f>
+        <v>7.85455332466475</v>
+      </c>
       <c r="F138" s="0" t="n">
         <v>16704</v>
       </c>
@@ -7973,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>0.0124</v>
       </c>
@@ -7986,6 +9661,10 @@
       <c r="D139" s="0" t="n">
         <v>578669</v>
       </c>
+      <c r="E139" s="0" t="n">
+        <f aca="false">C139/D139</f>
+        <v>7.99997235034191</v>
+      </c>
       <c r="F139" s="0" t="n">
         <v>0</v>
       </c>
@@ -8029,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>0.0134</v>
       </c>
@@ -8042,6 +9721,10 @@
       <c r="D140" s="0" t="n">
         <v>579573</v>
       </c>
+      <c r="E140" s="0" t="n">
+        <f aca="false">C140/D140</f>
+        <v>8</v>
+      </c>
       <c r="F140" s="0" t="n">
         <v>0</v>
       </c>
@@ -8085,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>0.0144</v>
       </c>
@@ -8098,6 +9781,10 @@
       <c r="D141" s="0" t="n">
         <v>578282</v>
       </c>
+      <c r="E141" s="0" t="n">
+        <f aca="false">C141/D141</f>
+        <v>7.91457455013298</v>
+      </c>
       <c r="F141" s="0" t="n">
         <v>0</v>
       </c>
@@ -8141,7 +9828,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>0.0154</v>
       </c>
@@ -8154,6 +9841,10 @@
       <c r="D142" s="0" t="n">
         <v>576698</v>
       </c>
+      <c r="E142" s="0" t="n">
+        <f aca="false">C142/D142</f>
+        <v>7.88632525169153</v>
+      </c>
       <c r="F142" s="0" t="n">
         <v>13308</v>
       </c>
@@ -8197,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>0.0164</v>
       </c>
@@ -8210,6 +9901,10 @@
       <c r="D143" s="0" t="n">
         <v>579140</v>
       </c>
+      <c r="E143" s="0" t="n">
+        <f aca="false">C143/D143</f>
+        <v>7.99998618641434</v>
+      </c>
       <c r="F143" s="0" t="n">
         <v>0</v>
       </c>
@@ -8253,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>0.0174</v>
       </c>
@@ -8266,6 +9961,10 @@
       <c r="D144" s="0" t="n">
         <v>579860</v>
       </c>
+      <c r="E144" s="0" t="n">
+        <f aca="false">C144/D144</f>
+        <v>8</v>
+      </c>
       <c r="F144" s="0" t="n">
         <v>0</v>
       </c>
@@ -8309,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>0.0184</v>
       </c>
@@ -8322,6 +10021,10 @@
       <c r="D145" s="0" t="n">
         <v>579709</v>
       </c>
+      <c r="E145" s="0" t="n">
+        <f aca="false">C145/D145</f>
+        <v>7.91516433244956</v>
+      </c>
       <c r="F145" s="0" t="n">
         <v>0</v>
       </c>
@@ -8365,7 +10068,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>0.0194</v>
       </c>
@@ -8378,6 +10081,10 @@
       <c r="D146" s="0" t="n">
         <v>579622</v>
       </c>
+      <c r="E146" s="0" t="n">
+        <f aca="false">C146/D146</f>
+        <v>7.88719544806788</v>
+      </c>
       <c r="F146" s="0" t="n">
         <v>13308</v>
       </c>
@@ -8421,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>0.0204</v>
       </c>
@@ -8434,6 +10141,10 @@
       <c r="D147" s="0" t="n">
         <v>578723</v>
       </c>
+      <c r="E147" s="0" t="n">
+        <f aca="false">C147/D147</f>
+        <v>7.99998617646093</v>
+      </c>
       <c r="F147" s="0" t="n">
         <v>0</v>
       </c>
@@ -8477,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>0.0214</v>
       </c>
@@ -8490,6 +10201,10 @@
       <c r="D148" s="0" t="n">
         <v>579518</v>
       </c>
+      <c r="E148" s="0" t="n">
+        <f aca="false">C148/D148</f>
+        <v>8</v>
+      </c>
       <c r="F148" s="0" t="n">
         <v>0</v>
       </c>
@@ -8533,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>0.0224</v>
       </c>
@@ -8546,6 +10261,10 @@
       <c r="D149" s="0" t="n">
         <v>494392</v>
       </c>
+      <c r="E149" s="0" t="n">
+        <f aca="false">C149/D149</f>
+        <v>7.53320846615641</v>
+      </c>
       <c r="F149" s="0" t="n">
         <v>251052</v>
       </c>
@@ -8589,59 +10308,63 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+    <row r="150" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
         <v>0.022593</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150" s="1" t="n">
         <v>193505416</v>
       </c>
-      <c r="C150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" s="0" t="n">
+      <c r="C150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1" t="e">
+        <f aca="false">C150/D150</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F150" s="1" t="n">
         <v>1512</v>
       </c>
-      <c r="G150" s="0" t="n">
+      <c r="G150" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="I150" s="0" t="n">
+      <c r="I150" s="1" t="n">
         <v>725904</v>
       </c>
-      <c r="J150" s="0" t="n">
+      <c r="J150" s="1" t="n">
         <v>92284</v>
       </c>
-      <c r="L150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" s="0" t="n">
+      <c r="L150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1" t="n">
         <v>9812</v>
       </c>
-      <c r="P150" s="0" t="n">
+      <c r="P150" s="1" t="n">
         <v>2454</v>
       </c>
-      <c r="R150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y150" s="0" t="n">
+      <c r="R150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8664,7 +10387,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8687,10 +10410,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8706,20 +10429,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>4.932258</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0.0418729946313217</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>-4.931692</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.000124927633480309</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>9.38472631839285E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8727,7 +10450,7 @@
         <v>0.001</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.000124927633480309</v>
+        <v>0.000120189285554441</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8735,7 +10458,7 @@
         <v>0.001</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>9.38472631839285E-005</v>
+        <v>0.000120540241218809</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8743,7 +10466,7 @@
         <v>0.001</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.000120189285554441</v>
+        <v>0.000120354676038188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8751,7 +10474,7 @@
         <v>0.001</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.000120540241218809</v>
+        <v>0.000272559392388119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8759,7 +10482,7 @@
         <v>0.001</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.000120354676038188</v>
+        <v>0.00012079305538901</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8767,15 +10490,15 @@
         <v>0.001</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.000272559392388119</v>
+        <v>0.000120963699700068</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999999</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.00012079305538901</v>
+        <v>0.000120073911506694</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8783,7 +10506,7 @@
         <v>0.001</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.000120963699700068</v>
+        <v>0.00012095697480111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8791,7 +10514,7 @@
         <v>0.000999999999999999</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.000120073911506694</v>
+        <v>0.000120567981427011</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8799,7 +10522,7 @@
         <v>0.001</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.00012095697480111</v>
+        <v>0.000121002157715984</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8807,7 +10530,7 @@
         <v>0.000999999999999999</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.000120567981427011</v>
+        <v>0.000120240773062088</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8815,7 +10538,7 @@
         <v>0.001</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.000121002157715984</v>
+        <v>0.000120556843313112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8823,7 +10546,7 @@
         <v>0.000999999999999999</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.000120240773062088</v>
+        <v>0.000120659608175313</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8831,15 +10554,15 @@
         <v>0.001</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.000120556843313112</v>
+        <v>0.000121136445542051</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>0.000999999999999999</v>
+        <v>0.000999999999999997</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.000120659608175313</v>
+        <v>0.00011965780838367</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8847,15 +10570,15 @@
         <v>0.001</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.000121136445542051</v>
+        <v>0.00012094226408464</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>0.000999999999999997</v>
+        <v>0.001</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.00011965780838367</v>
+        <v>0.000120684406240221</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8863,15 +10586,15 @@
         <v>0.001</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.00012094226408464</v>
+        <v>0.00012047215161686</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999997</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.000120684406240221</v>
+        <v>0.000120782127428203</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8879,15 +10602,15 @@
         <v>0.001</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.00012047215161686</v>
+        <v>0.000120758590281851</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>0.000999999999999997</v>
+        <v>0.001</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.000120782127428203</v>
+        <v>0.000121050282774152</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8895,15 +10618,15 @@
         <v>0.001</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.000120758590281851</v>
+        <v>0.000120661289400053</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999997</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.000121050282774152</v>
+        <v>0.000120695754507212</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8911,15 +10634,15 @@
         <v>0.001</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.000120661289400053</v>
+        <v>0.000120561046374961</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>0.000999999999999997</v>
+        <v>0.001</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.000120695754507212</v>
+        <v>0.000120588156123885</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8927,15 +10650,15 @@
         <v>0.001</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.000120561046374961</v>
+        <v>0.000120374430428877</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999997</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.000120588156123885</v>
+        <v>0.000120999635878875</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8943,7 +10666,7 @@
         <v>0.001</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.000120374430428877</v>
+        <v>0.000120675369657246</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8951,7 +10674,7 @@
         <v>0.000999999999999997</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.000120999635878875</v>
+        <v>0.000121058478744757</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8959,15 +10682,15 @@
         <v>0.001</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.000120675369657246</v>
+        <v>0.000120486652180238</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>0.000999999999999997</v>
+        <v>0.001</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.000121058478744757</v>
+        <v>0.000119809118610224</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8975,7 +10698,7 @@
         <v>0.001</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.000120486652180238</v>
+        <v>0.000120980511947463</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8983,7 +10706,7 @@
         <v>0.001</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.000119809118610224</v>
+        <v>0.000120462064268423</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,7 +10714,7 @@
         <v>0.001</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.000120980511947463</v>
+        <v>0.000121028426852539</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8999,7 +10722,7 @@
         <v>0.001</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.000120462064268423</v>
+        <v>0.000120459332278221</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,15 +10730,15 @@
         <v>0.001</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.000121028426852539</v>
+        <v>0.000120565669742994</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999994</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.000120459332278221</v>
+        <v>0.0001211156403859</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9023,15 +10746,15 @@
         <v>0.001</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.000120565669742994</v>
+        <v>0.000120640694396994</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>0.000999999999999994</v>
+        <v>0.001</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.0001211156403859</v>
+        <v>0.000120367915683012</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,7 +10762,7 @@
         <v>0.001</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.000120640694396994</v>
+        <v>0.000120641745162456</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9047,7 +10770,7 @@
         <v>0.001</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.000120367915683012</v>
+        <v>0.000120459962737499</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9055,7 +10778,7 @@
         <v>0.001</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.000120641745162456</v>
+        <v>0.000121166497434269</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9063,7 +10786,7 @@
         <v>0.001</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.000120459962737499</v>
+        <v>0.000120513761929162</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9071,15 +10794,15 @@
         <v>0.001</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.000121166497434269</v>
+        <v>0.000120982613478388</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999994</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.000120513761929162</v>
+        <v>0.000120434534213314</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9087,15 +10810,15 @@
         <v>0.001</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.000120982613478388</v>
+        <v>0.000120598453625414</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>0.000999999999999994</v>
+        <v>0.001</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.000120434534213314</v>
+        <v>0.000120831093098741</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9103,7 +10826,7 @@
         <v>0.001</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.000120598453625414</v>
+        <v>0.000120499261365784</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9111,7 +10834,7 @@
         <v>0.001</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.000120831093098741</v>
+        <v>0.000120582061684204</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9119,7 +10842,7 @@
         <v>0.001</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.000120499261365784</v>
+        <v>0.000121054065529816</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9127,7 +10850,7 @@
         <v>0.001</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.000120582061684204</v>
+        <v>0.00012047131100449</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9135,15 +10858,15 @@
         <v>0.001</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.000121054065529816</v>
+        <v>0.000121159982688404</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999994</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.00012047131100449</v>
+        <v>0.000120711305836052</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9151,15 +10874,15 @@
         <v>0.001</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.000121159982688404</v>
+        <v>0.000120110478144777</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>0.000999999999999994</v>
+        <v>0.001</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.000120711305836052</v>
+        <v>0.000121034731445312</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9167,7 +10890,7 @@
         <v>0.001</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.000120110478144777</v>
+        <v>0.000120658557409851</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9175,7 +10898,7 @@
         <v>0.001</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.000121034731445312</v>
+        <v>0.000121207477287294</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9183,7 +10906,7 @@
         <v>0.001</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.000120658557409851</v>
+        <v>0.000120418562578289</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9191,7 +10914,7 @@
         <v>0.001</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.000121207477287294</v>
+        <v>0.000110149641869488</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9199,7 +10922,7 @@
         <v>0.001</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.000120418562578289</v>
+        <v>0.00100214875316901</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9207,23 +10930,23 @@
         <v>0.001</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.000110149641869488</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>0.000176999999999997</v>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>1.48929192016733E-005</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>-0.06092</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>9.18267555346428E-005</v>
+        <v>0.00100212393991718</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>0.00100219660729755</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>0.00100216824929545</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9231,7 +10954,7 @@
         <v>0.001</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.00100214875316901</v>
+        <v>0.00100221610342399</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9239,7 +10962,7 @@
         <v>0.001</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.00100212393991718</v>
+        <v>0.00100222496529964</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9247,15 +10970,15 @@
         <v>0.001</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.00100219660729755</v>
+        <v>0.00100214520841875</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999999</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.00100216824929545</v>
+        <v>0.00100221610342399</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9263,15 +10986,15 @@
         <v>0.001</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.00100221610342399</v>
+        <v>0.00100222319292451</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999999</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.00100222496529964</v>
+        <v>0.00100217533879598</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9279,7 +11002,7 @@
         <v>0.001</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.00100214520841875</v>
+        <v>0.00100217179404571</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9287,7 +11010,7 @@
         <v>0.000999999999999999</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.00100221610342399</v>
+        <v>0.0010021593874198</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9295,7 +11018,7 @@
         <v>0.001</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.00100222319292451</v>
+        <v>0.00100219837967268</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,7 +11026,7 @@
         <v>0.000999999999999999</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.00100217533879598</v>
+        <v>0.001002107988541</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9311,31 +11034,31 @@
         <v>0.001</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.00100217179404571</v>
+        <v>0.00100218420067163</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>0.000999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.0010021593874198</v>
+        <v>0.00100216824929545</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999997</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.00100219837967268</v>
+        <v>0.00100217356642084</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>0.000999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.001002107988541</v>
+        <v>0.0010022338271753</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9343,7 +11066,7 @@
         <v>0.001</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.00100218420067163</v>
+        <v>0.0010021824282965</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9351,7 +11074,7 @@
         <v>0.001</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.00100216824929545</v>
+        <v>0.0010021824282965</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9359,7 +11082,7 @@
         <v>0.000999999999999997</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.00100217356642084</v>
+        <v>0.00100221255867373</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9367,7 +11090,7 @@
         <v>0.001</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.0010022338271753</v>
+        <v>0.00100219129017215</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9375,7 +11098,7 @@
         <v>0.001</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.0010021824282965</v>
+        <v>0.00100212925704257</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9383,7 +11106,7 @@
         <v>0.001</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.0010021824282965</v>
+        <v>0.00100217888354624</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9391,7 +11114,7 @@
         <v>0.000999999999999997</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.00100221255867373</v>
+        <v>0.00100221964817425</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9399,7 +11122,7 @@
         <v>0.001</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.00100219129017215</v>
+        <v>0.00100211685041665</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9407,7 +11130,7 @@
         <v>0.001</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.00100212925704257</v>
+        <v>0.0010022054691732</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9415,7 +11138,7 @@
         <v>0.001</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.00100217888354624</v>
+        <v>0.00100219306254729</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9423,7 +11146,7 @@
         <v>0.000999999999999997</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.00100221964817425</v>
+        <v>0.00100217179404571</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9431,15 +11154,15 @@
         <v>0.001</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.00100211685041665</v>
+        <v>0.00100218774542189</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999997</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.0010022054691732</v>
+        <v>0.0010021593874198</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9447,15 +11170,15 @@
         <v>0.001</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.00100219306254729</v>
+        <v>0.00100210976091613</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>0.000999999999999997</v>
+        <v>0.001</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0.00100217179404571</v>
+        <v>0.00100218774542189</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9463,15 +11186,15 @@
         <v>0.001</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0.00100218774542189</v>
+        <v>0.00100219837967268</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>0.000999999999999997</v>
+        <v>0.001</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.0010021593874198</v>
+        <v>0.00100201582503419</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9479,7 +11202,7 @@
         <v>0.001</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.00100210976091613</v>
+        <v>0.00100210089904048</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9487,7 +11210,7 @@
         <v>0.001</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.00100218774542189</v>
+        <v>0.00100218951779702</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9495,15 +11218,15 @@
         <v>0.001</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.00100219837967268</v>
+        <v>0.00100213634654309</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999994</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.00100201582503419</v>
+        <v>0.00100206367916273</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9511,7 +11234,7 @@
         <v>0.001</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0.00100210089904048</v>
+        <v>0.00100216115979493</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9519,7 +11242,7 @@
         <v>0.001</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0.00100218951779702</v>
+        <v>0.00100211330566639</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9527,15 +11250,15 @@
         <v>0.001</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>0.00100213634654309</v>
+        <v>0.00100218065592137</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>0.000999999999999994</v>
+        <v>0.001</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0.00100206367916273</v>
+        <v>0.00100215229791927</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9543,7 +11266,7 @@
         <v>0.001</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0.00100216115979493</v>
+        <v>0.00100212748466744</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9551,15 +11274,15 @@
         <v>0.001</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0.00100211330566639</v>
+        <v>0.00100214875316901</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999994</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0.00100218065592137</v>
+        <v>0.00100217888354624</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9567,7 +11290,7 @@
         <v>0.001</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0.00100215229791927</v>
+        <v>0.00100210976091613</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9575,7 +11298,7 @@
         <v>0.001</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0.00100212748466744</v>
+        <v>0.00100217711117111</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9583,15 +11306,15 @@
         <v>0.001</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0.00100214875316901</v>
+        <v>0.00100219306254729</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>0.000999999999999994</v>
+        <v>0.001</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0.00100217888354624</v>
+        <v>0.00100212039516692</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9599,7 +11322,7 @@
         <v>0.001</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0.00100210976091613</v>
+        <v>0.00100212748466744</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9607,7 +11330,7 @@
         <v>0.001</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.00100217711117111</v>
+        <v>0.00100216824929545</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9615,15 +11338,15 @@
         <v>0.001</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.00100219306254729</v>
+        <v>0.00100216647692032</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999994</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0.00100212039516692</v>
+        <v>0.00100210089904048</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9631,7 +11354,7 @@
         <v>0.001</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0.00100212748466744</v>
+        <v>0.00100207608578864</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9639,7 +11362,7 @@
         <v>0.001</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0.00100216824929545</v>
+        <v>0.00100217356642084</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9647,15 +11370,15 @@
         <v>0.001</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0.00100216647692032</v>
+        <v>0.00100220015204781</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>0.000999999999999994</v>
+        <v>0.001</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0.00100210089904048</v>
+        <v>0.00100216470454519</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9663,7 +11386,7 @@
         <v>0.001</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0.00100207608578864</v>
+        <v>0.00100214343604362</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9671,7 +11394,7 @@
         <v>0.001</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0.00100217356642084</v>
+        <v>0.000238928574278297</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9679,7 +11402,7 @@
         <v>0.001</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0.00100220015204781</v>
+        <v>0.000121680531898368</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9687,7 +11410,7 @@
         <v>0.001</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0.00100216470454519</v>
+        <v>0.000121802210538888</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9695,23 +11418,23 @@
         <v>0.001</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0.00100214343604362</v>
-      </c>
-    </row>
-    <row r="126" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>0.000599999999999996</v>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>0.000488611920851214</v>
-      </c>
-    </row>
-    <row r="127" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <v>-0.060023</v>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>0</v>
+        <v>0.00012164102311699</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>0.000121779303851813</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>0.000121215042798622</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9719,15 +11442,15 @@
         <v>0.001</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0.000238928574278297</v>
+        <v>0.00012186189401714</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999999</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0.000121680531898368</v>
+        <v>0.000121645226178839</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9735,15 +11458,15 @@
         <v>0.001</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0.000121802210538888</v>
+        <v>0.000122060908995678</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999999</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0.00012164102311699</v>
+        <v>0.000121800109007964</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9751,15 +11474,15 @@
         <v>0.001</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>0.000121779303851813</v>
+        <v>0.000122346717201391</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999999</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0.000121215042798622</v>
+        <v>0.00012160907984694</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9767,7 +11490,7 @@
         <v>0.001</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>0.00012186189401714</v>
+        <v>0.000121799058242502</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9775,7 +11498,7 @@
         <v>0.000999999999999999</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>0.000121645226178839</v>
+        <v>0.000121527750600167</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9783,31 +11506,31 @@
         <v>0.001</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0.000122060908995678</v>
+        <v>0.000121194868101748</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
-        <v>0.000999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>0.000121800109007964</v>
+        <v>0.000121708061953477</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999997</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>0.000122346717201391</v>
+        <v>0.000121859372180031</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>0.000999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0.00012160907984694</v>
+        <v>0.000121827639063073</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9815,23 +11538,23 @@
         <v>0.001</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>0.000121799058242502</v>
+        <v>0.000121809355744031</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>0.000999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>0.000121527750600167</v>
+        <v>0.000121620428113931</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>0.001</v>
+        <v>0.000999999999999997</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>0.000121194868101748</v>
+        <v>0.000121787499822418</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9839,65 +11562,16 @@
         <v>0.001</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>0.000121708061953477</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
-        <v>0.000999999999999997</v>
-      </c>
-      <c r="B144" s="0" t="n">
-        <v>0.000121859372180031</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B145" s="0" t="n">
-        <v>0.000121827639063073</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B146" s="0" t="n">
-        <v>0.000121809355744031</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B147" s="0" t="n">
-        <v>0.000121620428113931</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
-        <v>0.000999999999999997</v>
-      </c>
-      <c r="B148" s="0" t="n">
-        <v>0.000121787499822418</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B149" s="0" t="n">
         <v>0.000103898007675697</v>
       </c>
     </row>
-    <row r="150" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
-        <v>0.000192999999999999</v>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1.93937679823785E-005</v>
-      </c>
-    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9906,5 +11580,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>